--- a/resultats_ronde2.xlsx
+++ b/resultats_ronde2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joanm\Documents\Dofus\excel utiles\code\JDA-Stats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66846AD9-A6E1-42E8-AA1D-7B08F89A9B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -580,8 +586,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,13 +650,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -688,7 +702,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -722,6 +736,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -756,9 +771,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -931,14 +947,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -963,7 +981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -977,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -991,7 +1009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1005,7 +1023,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1019,7 +1037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1033,7 +1051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1047,7 +1065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1061,7 +1079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1075,7 +1093,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1089,7 +1107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1103,7 +1121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1117,7 +1135,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1131,7 +1149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1145,7 +1163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1159,7 +1177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1173,7 +1191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1187,7 +1205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1215,7 +1233,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1229,7 +1247,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1243,7 +1261,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1257,7 +1275,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1271,7 +1289,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1285,7 +1303,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1299,7 +1317,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1313,7 +1331,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1327,7 +1345,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1341,7 +1359,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1355,7 +1373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1369,7 +1387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1383,7 +1401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1397,7 +1415,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1411,7 +1429,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1425,7 +1443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1439,7 +1457,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1453,7 +1471,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1467,7 +1485,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1481,7 +1499,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1495,7 +1513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1509,7 +1527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1523,7 +1541,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1537,7 +1555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1551,7 +1569,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1565,7 +1583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1579,7 +1597,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1593,7 +1611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1607,7 +1625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1621,7 +1639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1635,7 +1653,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1649,7 +1667,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1663,7 +1681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1677,7 +1695,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1691,7 +1709,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1705,7 +1723,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1719,7 +1737,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1733,7 +1751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1747,7 +1765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1761,7 +1779,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1775,7 +1793,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1789,7 +1807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1803,7 +1821,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1817,7 +1835,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1831,7 +1849,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1845,7 +1863,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1859,7 +1877,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1873,7 +1891,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1887,7 +1905,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1901,7 +1919,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1915,7 +1933,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1929,7 +1947,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1943,7 +1961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1957,7 +1975,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1971,7 +1989,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1985,7 +2003,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1999,7 +2017,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2013,7 +2031,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2027,7 +2045,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2041,7 +2059,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2055,7 +2073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2069,7 +2087,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2083,7 +2101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2097,7 +2115,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2111,7 +2129,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2125,7 +2143,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2139,7 +2157,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2153,7 +2171,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2181,7 +2199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2195,7 +2213,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2209,7 +2227,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2225,5 +2243,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>